--- a/mcmaster_excel/316_Stainless_Steel_Narrow_Cheese_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/316_Stainless_Steel_Narrow_Cheese_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,96 +434,146 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DIN 84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>91613A019</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$14.77</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>M1.6 × 0.35 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,21 +608,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>91613A019</t>
+          <t>91613A020</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$14.77</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,21 +665,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>91613A020</t>
+          <t>91613A021</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,21 +722,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>91613A021</t>
+          <t>91613A022</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -705,21 +779,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>91613A022</t>
+          <t>91613A024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -754,21 +836,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>91613A024</t>
+          <t>91613A025</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15.54</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -803,21 +893,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>91613A025</t>
+          <t>91613A026</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -827,12 +925,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -847,43 +945,91 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>91613A026</t>
+          <t>91613A031</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16.22</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>91613A032</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -908,7 +1054,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DIN 84</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -918,21 +1064,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>91613A031</t>
+          <t>91613A034</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -967,21 +1121,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>91613A032</t>
+          <t>91613A036</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11.38</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1016,21 +1178,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>91613A034</t>
+          <t>91613A038</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1065,21 +1235,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>91613A036</t>
+          <t>91613A040</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1089,12 +1267,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1104,7 +1282,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1114,21 +1292,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>91613A038</t>
+          <t>91613A060</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17.28</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1138,12 +1324,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1153,7 +1339,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 84</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1163,38 +1349,86 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>91613A040</t>
+          <t>91613A061</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DIN 84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>91613A062</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1229,21 +1463,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>91613A060</t>
+          <t>91613A064</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1278,21 +1520,29 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>91613A061</t>
+          <t>91613A066</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1302,12 +1552,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1317,7 +1567,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DIN 84</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1327,21 +1577,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>91613A062</t>
+          <t>91613A143</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1351,12 +1609,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1366,31 +1624,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DIN 84</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>91613A064</t>
+          <t>91613A145</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1400,12 +1666,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1415,7 +1681,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DIN 84</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1425,38 +1691,86 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>91613A066</t>
+          <t>91613A147</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>13.48</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>91613A149</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1486,26 +1800,34 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>91613A143</t>
+          <t>91613A151</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>21.43</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1540,21 +1862,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>91613A145</t>
+          <t>91613A159</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1564,12 +1894,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1584,26 +1914,34 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>91613A147</t>
+          <t>91613A181</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1613,12 +1951,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1633,26 +1971,34 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>91613A149</t>
+          <t>91613A182</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13.90</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1662,12 +2008,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1682,26 +2028,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>91613A151</t>
+          <t>91613A184</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1711,12 +2065,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1731,43 +2085,91 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>91613A159</t>
+          <t>91613A186</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12.41</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M3.5 × 0.6 mm</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>91613A223</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1777,12 +2179,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1797,26 +2199,34 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>91613A181</t>
+          <t>91613A224</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1826,12 +2236,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1846,26 +2256,34 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>91613A182</t>
+          <t>91613A226</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1875,12 +2293,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1895,26 +2313,34 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>91613A184</t>
+          <t>91613A228</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1924,12 +2350,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1944,43 +2370,91 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>91613A186</t>
+          <t>91613A230</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>91613A240</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1990,12 +2464,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2015,21 +2489,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>91613A223</t>
+          <t>91613A337</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2039,12 +2521,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2059,26 +2541,34 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>91613A224</t>
+          <t>91613A339</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2088,12 +2578,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2108,26 +2598,34 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>91613A226</t>
+          <t>91613A341</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2137,12 +2635,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2157,26 +2655,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>91613A228</t>
+          <t>91613A348</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2186,12 +2692,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2201,31 +2707,39 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 84</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>91613A230</t>
+          <t>91613A352</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10.57</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2235,12 +2749,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2260,38 +2774,86 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>91613A240</t>
+          <t>91613A364</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>91613A416</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2301,12 +2863,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2326,70 +2888,86 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>91613A337</t>
+          <t>91613A418</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>91613A339</t>
+          <t>91613A420</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2399,12 +2977,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2419,26 +2997,34 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>91613A341</t>
+          <t>91613A422</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2448,12 +3034,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2463,7 +3049,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 84</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2473,21 +3059,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>91613A348</t>
+          <t>91613A426</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10.43</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2497,12 +3091,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2522,376 +3116,24 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>91613A352</t>
+          <t>91613A428</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>91613A364</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>91613A416</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>91613A418</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>91613A420</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>91613A422</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>DIN 84</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>91613A426</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>15.27</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>DIN 84</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>91613A428</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
